--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>91.4136161091929</v>
+        <v>0.4980406666666666</v>
       </c>
       <c r="H2">
-        <v>91.4136161091929</v>
+        <v>1.494122</v>
       </c>
       <c r="I2">
-        <v>0.8175670167674751</v>
+        <v>0.004393808999309369</v>
       </c>
       <c r="J2">
-        <v>0.8175670167674751</v>
+        <v>0.00439380899930937</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N2">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O2">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P2">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q2">
-        <v>2143.750555726279</v>
+        <v>12.17599628634355</v>
       </c>
       <c r="R2">
-        <v>2143.750555726279</v>
+        <v>109.583966577092</v>
       </c>
       <c r="S2">
-        <v>0.1658835843208613</v>
+        <v>0.0008307133557461467</v>
       </c>
       <c r="T2">
-        <v>0.1658835843208613</v>
+        <v>0.0008307133557461469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>91.4136161091929</v>
+        <v>0.4980406666666666</v>
       </c>
       <c r="H3">
-        <v>91.4136161091929</v>
+        <v>1.494122</v>
       </c>
       <c r="I3">
-        <v>0.8175670167674751</v>
+        <v>0.004393808999309369</v>
       </c>
       <c r="J3">
-        <v>0.8175670167674751</v>
+        <v>0.00439380899930937</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N3">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P3">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q3">
-        <v>1652.516222091602</v>
+        <v>9.019886185521555</v>
       </c>
       <c r="R3">
-        <v>1652.516222091602</v>
+        <v>81.178975669694</v>
       </c>
       <c r="S3">
-        <v>0.1278718334727395</v>
+        <v>0.0006153861865108247</v>
       </c>
       <c r="T3">
-        <v>0.1278718334727395</v>
+        <v>0.0006153861865108248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>91.4136161091929</v>
+        <v>0.4980406666666666</v>
       </c>
       <c r="H4">
-        <v>91.4136161091929</v>
+        <v>1.494122</v>
       </c>
       <c r="I4">
-        <v>0.8175670167674751</v>
+        <v>0.004393808999309369</v>
       </c>
       <c r="J4">
-        <v>0.8175670167674751</v>
+        <v>0.00439380899930937</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N4">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O4">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P4">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q4">
-        <v>6219.719474665078</v>
+        <v>40.184349930998</v>
       </c>
       <c r="R4">
-        <v>6219.719474665078</v>
+        <v>361.659149378982</v>
       </c>
       <c r="S4">
-        <v>0.4812823754945512</v>
+        <v>0.002741597105864533</v>
       </c>
       <c r="T4">
-        <v>0.4812823754945512</v>
+        <v>0.002741597105864533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>91.4136161091929</v>
+        <v>0.4980406666666666</v>
       </c>
       <c r="H5">
-        <v>91.4136161091929</v>
+        <v>1.494122</v>
       </c>
       <c r="I5">
-        <v>0.8175670167674751</v>
+        <v>0.004393808999309369</v>
       </c>
       <c r="J5">
-        <v>0.8175670167674751</v>
+        <v>0.00439380899930937</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N5">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O5">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P5">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q5">
-        <v>549.6146399396329</v>
+        <v>3.021045954388</v>
       </c>
       <c r="R5">
-        <v>549.6146399396329</v>
+        <v>27.189413589492</v>
       </c>
       <c r="S5">
-        <v>0.04252922347932307</v>
+        <v>0.0002061123511878645</v>
       </c>
       <c r="T5">
-        <v>0.04252922347932307</v>
+        <v>0.0002061123511878645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3981549559208</v>
+        <v>92.11319466666667</v>
       </c>
       <c r="H6">
-        <v>20.3981549559208</v>
+        <v>276.339584</v>
       </c>
       <c r="I6">
-        <v>0.1824329832325249</v>
+        <v>0.8126400327714922</v>
       </c>
       <c r="J6">
-        <v>0.1824329832325249</v>
+        <v>0.8126400327714922</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N6">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O6">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P6">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q6">
-        <v>478.3593285524611</v>
+        <v>2251.964530710158</v>
       </c>
       <c r="R6">
-        <v>478.3593285524611</v>
+        <v>20267.68077639142</v>
       </c>
       <c r="S6">
-        <v>0.03701548195597749</v>
+        <v>0.1536413914995792</v>
       </c>
       <c r="T6">
-        <v>0.03701548195597749</v>
+        <v>0.1536413914995792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3981549559208</v>
+        <v>92.11319466666667</v>
       </c>
       <c r="H7">
-        <v>20.3981549559208</v>
+        <v>276.339584</v>
       </c>
       <c r="I7">
-        <v>0.1824329832325249</v>
+        <v>0.8126400327714922</v>
       </c>
       <c r="J7">
-        <v>0.1824329832325249</v>
+        <v>0.8126400327714922</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N7">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P7">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q7">
-        <v>368.7446509624236</v>
+        <v>1668.238334108175</v>
       </c>
       <c r="R7">
-        <v>368.7446509624236</v>
+        <v>15014.14500697357</v>
       </c>
       <c r="S7">
-        <v>0.02853348969981655</v>
+        <v>0.1138163836552489</v>
       </c>
       <c r="T7">
-        <v>0.02853348969981655</v>
+        <v>0.1138163836552489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.3981549559208</v>
+        <v>92.11319466666667</v>
       </c>
       <c r="H8">
-        <v>20.3981549559208</v>
+        <v>276.339584</v>
       </c>
       <c r="I8">
-        <v>0.1824329832325249</v>
+        <v>0.8126400327714922</v>
       </c>
       <c r="J8">
-        <v>0.1824329832325249</v>
+        <v>0.8126400327714922</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N8">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O8">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P8">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q8">
-        <v>1387.876413017404</v>
+        <v>7432.141781757056</v>
       </c>
       <c r="R8">
-        <v>1387.876413017404</v>
+        <v>66889.2760358135</v>
       </c>
       <c r="S8">
-        <v>0.1073939845150076</v>
+        <v>0.5070615409787214</v>
       </c>
       <c r="T8">
-        <v>0.1073939845150076</v>
+        <v>0.5070615409787214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>92.11319466666667</v>
+      </c>
+      <c r="H9">
+        <v>276.339584</v>
+      </c>
+      <c r="I9">
+        <v>0.8126400327714922</v>
+      </c>
+      <c r="J9">
+        <v>0.8126400327714922</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.065862</v>
+      </c>
+      <c r="N9">
+        <v>18.197586</v>
+      </c>
+      <c r="O9">
+        <v>0.0469097202951384</v>
+      </c>
+      <c r="P9">
+        <v>0.04690972029513841</v>
+      </c>
+      <c r="Q9">
+        <v>558.745927227136</v>
+      </c>
+      <c r="R9">
+        <v>5028.713345044224</v>
+      </c>
+      <c r="S9">
+        <v>0.0381207166379428</v>
+      </c>
+      <c r="T9">
+        <v>0.03812071663794281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>20.73931466666667</v>
+      </c>
+      <c r="H10">
+        <v>62.217944</v>
+      </c>
+      <c r="I10">
+        <v>0.1829661582291984</v>
+      </c>
+      <c r="J10">
+        <v>0.1829661582291984</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>24.44779533333333</v>
+      </c>
+      <c r="N10">
+        <v>73.343386</v>
+      </c>
+      <c r="O10">
+        <v>0.1890645123346783</v>
+      </c>
+      <c r="P10">
+        <v>0.1890645123346783</v>
+      </c>
+      <c r="Q10">
+        <v>507.0305203242649</v>
+      </c>
+      <c r="R10">
+        <v>4563.274682918384</v>
+      </c>
+      <c r="S10">
+        <v>0.03459240747935299</v>
+      </c>
+      <c r="T10">
+        <v>0.03459240747935299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>20.3981549559208</v>
-      </c>
-      <c r="H9">
-        <v>20.3981549559208</v>
-      </c>
-      <c r="I9">
-        <v>0.1824329832325249</v>
-      </c>
-      <c r="J9">
-        <v>0.1824329832325249</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.01239359444136</v>
-      </c>
-      <c r="N9">
-        <v>6.01239359444136</v>
-      </c>
-      <c r="O9">
-        <v>0.05201925054104627</v>
-      </c>
-      <c r="P9">
-        <v>0.05201925054104627</v>
-      </c>
-      <c r="Q9">
-        <v>122.6417361954005</v>
-      </c>
-      <c r="R9">
-        <v>122.6417361954005</v>
-      </c>
-      <c r="S9">
-        <v>0.009490027061723205</v>
-      </c>
-      <c r="T9">
-        <v>0.009490027061723205</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>20.73931466666667</v>
+      </c>
+      <c r="H11">
+        <v>62.217944</v>
+      </c>
+      <c r="I11">
+        <v>0.1829661582291984</v>
+      </c>
+      <c r="J11">
+        <v>0.1829661582291984</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>18.11074233333333</v>
+      </c>
+      <c r="N11">
+        <v>54.332227</v>
+      </c>
+      <c r="O11">
+        <v>0.1400575643155068</v>
+      </c>
+      <c r="P11">
+        <v>0.1400575643155068</v>
+      </c>
+      <c r="Q11">
+        <v>375.604384097921</v>
+      </c>
+      <c r="R11">
+        <v>3380.439456881288</v>
+      </c>
+      <c r="S11">
+        <v>0.02562579447374716</v>
+      </c>
+      <c r="T11">
+        <v>0.02562579447374716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>20.73931466666667</v>
+      </c>
+      <c r="H12">
+        <v>62.217944</v>
+      </c>
+      <c r="I12">
+        <v>0.1829661582291984</v>
+      </c>
+      <c r="J12">
+        <v>0.1829661582291984</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>80.684877</v>
+      </c>
+      <c r="N12">
+        <v>242.054631</v>
+      </c>
+      <c r="O12">
+        <v>0.6239682030546764</v>
+      </c>
+      <c r="P12">
+        <v>0.6239682030546765</v>
+      </c>
+      <c r="Q12">
+        <v>1673.349052944296</v>
+      </c>
+      <c r="R12">
+        <v>15060.14147649866</v>
+      </c>
+      <c r="S12">
+        <v>0.1141650649700905</v>
+      </c>
+      <c r="T12">
+        <v>0.1141650649700905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20.73931466666667</v>
+      </c>
+      <c r="H13">
+        <v>62.217944</v>
+      </c>
+      <c r="I13">
+        <v>0.1829661582291984</v>
+      </c>
+      <c r="J13">
+        <v>0.1829661582291984</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.065862</v>
+      </c>
+      <c r="N13">
+        <v>18.197586</v>
+      </c>
+      <c r="O13">
+        <v>0.0469097202951384</v>
+      </c>
+      <c r="P13">
+        <v>0.04690972029513841</v>
+      </c>
+      <c r="Q13">
+        <v>125.801820742576</v>
+      </c>
+      <c r="R13">
+        <v>1132.216386683184</v>
+      </c>
+      <c r="S13">
+        <v>0.008582891306007734</v>
+      </c>
+      <c r="T13">
+        <v>0.008582891306007735</v>
       </c>
     </row>
   </sheetData>
